--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fn1-Itgb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H2">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I2">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J2">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>3164.756897753223</v>
+        <v>481.0469512685199</v>
       </c>
       <c r="R2">
-        <v>28482.81207977901</v>
+        <v>4329.42256141668</v>
       </c>
       <c r="S2">
-        <v>0.02302972545954165</v>
+        <v>0.004163964615222498</v>
       </c>
       <c r="T2">
-        <v>0.02302972545954165</v>
+        <v>0.004163964615222499</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H3">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I3">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J3">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>2746.613047072478</v>
+        <v>633.8704036040319</v>
       </c>
       <c r="R3">
-        <v>24719.5174236523</v>
+        <v>5704.833632436287</v>
       </c>
       <c r="S3">
-        <v>0.01998692046854545</v>
+        <v>0.00548681147294222</v>
       </c>
       <c r="T3">
-        <v>0.01998692046854545</v>
+        <v>0.00548681147294222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>27.03890566666666</v>
+        <v>6.240107999999999</v>
       </c>
       <c r="H4">
-        <v>81.11671699999999</v>
+        <v>18.720324</v>
       </c>
       <c r="I4">
-        <v>0.07096188219033728</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="J4">
-        <v>0.07096188219033729</v>
+        <v>0.01732230523539376</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>3840.248958923539</v>
+        <v>886.262504333248</v>
       </c>
       <c r="R4">
-        <v>34562.24063031186</v>
+        <v>7976.362538999231</v>
       </c>
       <c r="S4">
-        <v>0.02794523626225017</v>
+        <v>0.007671529147229043</v>
       </c>
       <c r="T4">
-        <v>0.02794523626225018</v>
+        <v>0.007671529147229044</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J5">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>40446.68922645997</v>
+        <v>26639.56285504068</v>
       </c>
       <c r="R5">
-        <v>364020.2030381398</v>
+        <v>239756.0656953661</v>
       </c>
       <c r="S5">
-        <v>0.2943278674245289</v>
+        <v>0.2305932857507418</v>
       </c>
       <c r="T5">
-        <v>0.294327867424529</v>
+        <v>0.2305932857507418</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I6">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J6">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>35102.66599597228</v>
@@ -818,10 +818,10 @@
         <v>315923.9939637505</v>
       </c>
       <c r="S6">
-        <v>0.2554397658029108</v>
+        <v>0.3038502971939899</v>
       </c>
       <c r="T6">
-        <v>0.2554397658029108</v>
+        <v>0.3038502971939899</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>1036.699737</v>
       </c>
       <c r="I7">
-        <v>0.9069174311350353</v>
+        <v>0.9592798330716089</v>
       </c>
       <c r="J7">
-        <v>0.9069174311350354</v>
+        <v>0.9592798330716091</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>49079.71171627369</v>
@@ -880,10 +880,10 @@
         <v>441717.4054464632</v>
       </c>
       <c r="S7">
-        <v>0.3571497979075956</v>
+        <v>0.4248362501268773</v>
       </c>
       <c r="T7">
-        <v>0.3571497979075956</v>
+        <v>0.4248362501268773</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H8">
         <v>25.286216</v>
       </c>
       <c r="I8">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J8">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>986.5380338812028</v>
+        <v>649.7674461145688</v>
       </c>
       <c r="R8">
-        <v>8878.842304930826</v>
+        <v>5847.90701503112</v>
       </c>
       <c r="S8">
-        <v>0.007178971658710861</v>
+        <v>0.005624417006718097</v>
       </c>
       <c r="T8">
-        <v>0.007178971658710863</v>
+        <v>0.005624417006718099</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H9">
         <v>25.286216</v>
       </c>
       <c r="I9">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J9">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
-        <v>856.1915884329104</v>
+        <v>856.1915884329102</v>
       </c>
       <c r="R9">
-        <v>7705.724295896193</v>
+        <v>7705.724295896192</v>
       </c>
       <c r="S9">
-        <v>0.006230449244419762</v>
+        <v>0.007411233911127559</v>
       </c>
       <c r="T9">
-        <v>0.006230449244419763</v>
+        <v>0.00741123391112756</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>8.428738666666668</v>
+        <v>8.428738666666666</v>
       </c>
       <c r="H10">
         <v>25.286216</v>
       </c>
       <c r="I10">
-        <v>0.0221206866746274</v>
+        <v>0.02339786169299727</v>
       </c>
       <c r="J10">
-        <v>0.02212068667462741</v>
+        <v>0.02339786169299728</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
-        <v>1197.106690956388</v>
+        <v>1197.106690956387</v>
       </c>
       <c r="R10">
         <v>10773.96021860749</v>
       </c>
       <c r="S10">
-        <v>0.008711265771496777</v>
+        <v>0.01036221077515161</v>
       </c>
       <c r="T10">
-        <v>0.008711265771496779</v>
+        <v>0.01036221077515162</v>
       </c>
     </row>
   </sheetData>
